--- a/references/Release9_DataDic/SDQ.xlsx
+++ b/references/Release9_DataDic/SDQ.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data-1/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Release11_DataDic/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8EBA6A-C62F-A048-BBAB-9F77BC651288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2520" windowWidth="33520" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="100">
   <si>
     <t xml:space="preserve">Question </t>
   </si>
@@ -316,12 +322,15 @@
   </si>
   <si>
     <t>Strength and Difficulties Questionnaire</t>
+  </si>
+  <si>
+    <t>2=Not True, 1=Somewhat True, 0=Certainly True</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -373,6 +382,7 @@
       <sz val="16"/>
       <color rgb="FF0067A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -498,6 +508,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -822,25 +840,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.6640625" customWidth="1"/>
+    <col min="1" max="1" width="141.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="20">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -871,10 +889,10 @@
         <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -891,7 +909,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -908,7 +926,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -922,10 +940,10 @@
         <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -942,7 +960,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -959,7 +977,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -976,7 +994,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -993,7 +1011,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1007,10 +1025,10 @@
         <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1027,7 +1045,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1044,7 +1062,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1061,7 +1079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1078,7 +1096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1112,7 +1130,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1129,7 +1147,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1143,10 +1161,10 @@
         <v>87</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1163,7 +1181,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -1180,7 +1198,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1194,10 +1212,10 @@
         <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1214,7 +1232,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -1231,7 +1249,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -1248,7 +1266,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1265,7 +1283,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1299,7 +1317,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1333,7 +1351,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1350,7 +1368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1384,7 +1402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1401,7 +1419,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" thickBot="1">
+    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -1412,20 +1430,20 @@
         <v>86</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1436,7 +1454,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1447,7 +1465,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1458,7 +1476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1469,7 +1487,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1480,7 +1498,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1491,7 +1509,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -1513,7 +1531,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>82</v>
       </c>

--- a/references/Release9_DataDic/SDQ.xlsx
+++ b/references/Release9_DataDic/SDQ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data-1/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Release11_DataDic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaida.soroush/Desktop/Documents/Reverse coded DD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8EBA6A-C62F-A048-BBAB-9F77BC651288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF935524-D623-D840-A283-2CD9FE8052BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,7 +844,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,8 +888,8 @@
       <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" t="s">
-        <v>99</v>
+      <c r="E3" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1025,7 +1025,7 @@
         <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
         <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1110,7 +1110,7 @@
         <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>87</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1297,7 +1297,7 @@
         <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
